--- a/Data_Golf/2022-04-21 Zurich Classic/golf-odds-pinnacle-input.xlsx
+++ b/Data_Golf/2022-04-21 Zurich Classic/golf-odds-pinnacle-input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikef\Documents\GitHub\DFS_Data\Data_Golf\2022-04-21 Zurich Classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B37B5F-40B7-43E9-9DD7-7D0637EFBE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB42EFA-1641-4ACA-9E46-CE320B855FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99801895-7261-44E2-ABCF-7D743E07E5B7}"/>
+    <workbookView xWindow="-11175" yWindow="6735" windowWidth="28800" windowHeight="15435" xr2:uid="{99801895-7261-44E2-ABCF-7D743E07E5B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,10 +281,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,16 +318,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,19 +643,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0904DF-0F5B-4FA4-AC3B-B5E40CFFA2FC}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,14 +668,22 @@
         <v>9.8522167487684734E-2</v>
       </c>
       <c r="D1" s="2">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="E1" s="1">
         <f>100/(100+D1)</f>
-        <v>0.10152284263959391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.10427528675703858</v>
+      </c>
+      <c r="F1" s="1">
+        <f>E1-C1</f>
+        <v>5.7531192693538458E-3</v>
+      </c>
+      <c r="G1" s="3">
+        <f>F1/C1</f>
+        <v>5.8394160583941535E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -674,14 +695,22 @@
         <v>9.1743119266055051E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>1054</v>
+        <v>1133</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E65" si="1">100/(100+D2)</f>
-        <v>8.6655112651646451E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.1103000811030002E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F65" si="2">E2-C2</f>
+        <v>-1.0640118455025049E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G65" si="3">F2/C2</f>
+        <v>-0.11597729115977304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -693,14 +722,22 @@
         <v>7.3746312684365781E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>1368</v>
+        <v>1318</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
-        <v>6.8119891008174394E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0521861777150918E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.2244509072148625E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="3"/>
+        <v>-4.3723554301833535E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -712,14 +749,22 @@
         <v>8.2508250825082508E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>1232</v>
+        <v>1321</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>7.5075075075075076E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0372976776917659E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.2135274048164849E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.14707952146375797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -731,14 +776,22 @@
         <v>6.7430883344571813E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>1259</v>
+        <v>1309</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>7.358351729212656E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0972320794889993E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>3.54143745031818E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2519517388218612E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -750,14 +803,22 @@
         <v>4.5745654162854532E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>2132</v>
+        <v>2092</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>4.4802867383512544E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.5620437956204379E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.2521620665015276E-4</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="3"/>
+        <v>-2.7372262773723392E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -769,14 +830,22 @@
         <v>3.8699690402476783E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>3.8744672607516469E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.8789759503491075E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>9.006910101429233E-5</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="3"/>
+        <v>2.3273855702093138E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -788,14 +857,22 @@
         <v>4.0371417036737987E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>2148</v>
+        <v>2298</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>4.4483985765124558E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.1701417848206836E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3300008114688483E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.2944120100083372E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -807,14 +884,22 @@
         <v>3.3852403520649964E-2</v>
       </c>
       <c r="D9">
-        <v>2854</v>
+        <v>2629</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>3.3852403520649964E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.6643459142543057E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7910556218930932E-3</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="3"/>
+        <v>8.2447783070721981E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -826,14 +911,22 @@
         <v>3.8699690402476783E-2</v>
       </c>
       <c r="D10">
-        <v>2484</v>
+        <v>2130</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>3.8699690402476783E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.4843049327354258E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>6.1433589248774748E-3</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15874439461883394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -845,14 +938,22 @@
         <v>2.5329280648429583E-2</v>
       </c>
       <c r="D11">
-        <v>3848</v>
+        <v>3046</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>2.5329280648429583E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.1786395422759059E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4571147743294754E-3</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.2549268912905277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -864,14 +965,22 @@
         <v>2.4142926122646065E-2</v>
       </c>
       <c r="D12">
-        <v>4042</v>
+        <v>3246</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>2.4142926122646065E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.9886431560071727E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>5.7435054374256611E-3</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.23789599521817087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -883,14 +992,22 @@
         <v>3.0211480362537766E-2</v>
       </c>
       <c r="D13">
-        <v>3210</v>
+        <v>3485</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>3.0211480362537766E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.7894002789400279E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.3174775731374872E-3</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>-7.6708507670850828E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -902,14 +1019,22 @@
         <v>2.3523876734885908E-2</v>
       </c>
       <c r="D14">
-        <v>4151</v>
+        <v>3867</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>2.3523876734885908E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.5207965717166624E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6840889822807154E-3</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>7.1590622636753212E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -921,14 +1046,22 @@
         <v>1.7295053614666205E-2</v>
       </c>
       <c r="D15">
-        <v>5682</v>
+        <v>6463</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>1.7295053614666205E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.5236934328813043E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.0581192858531612E-3</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.11900045710802978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -940,14 +1073,22 @@
         <v>1.6986580601324953E-2</v>
       </c>
       <c r="D16">
-        <v>5787</v>
+        <v>5237</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>1.6986580601324953E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.873711823121604E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7505376298910871E-3</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10305415027168831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -959,14 +1100,22 @@
         <v>1.7295053614666205E-2</v>
       </c>
       <c r="D17">
-        <v>5682</v>
+        <v>7256</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>1.7295053614666205E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.3594344752582926E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.7007088620832785E-3</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.21397498640565518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -978,14 +1127,22 @@
         <v>1.9421246844047387E-2</v>
       </c>
       <c r="D18">
-        <v>5049</v>
+        <v>6789</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>1.9421246844047387E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.4515894904920888E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>-4.9053519391264993E-3</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.25257657134562345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -997,14 +1154,22 @@
         <v>1.6980811682798438E-2</v>
       </c>
       <c r="D19">
-        <v>5789</v>
+        <v>6044</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>1.6980811682798438E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.6276041666666668E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.0477001613176993E-4</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>-4.1503906249999931E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1016,14 +1181,22 @@
         <v>1.7295053614666205E-2</v>
       </c>
       <c r="D20">
-        <v>5682</v>
+        <v>4423</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>1.7295053614666205E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.2109219544550078E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8141659298838735E-3</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.27835507406588555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1035,14 +1208,22 @@
         <v>1.5179113539769277E-2</v>
       </c>
       <c r="D21">
-        <v>6488</v>
+        <v>6522</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>1.5179113539769277E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.5101177891875567E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.7935647893710366E-5</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>-5.134400483237639E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1054,14 +1235,22 @@
         <v>1.2257906349595489E-2</v>
       </c>
       <c r="D22">
-        <v>8058</v>
+        <v>5851</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>1.2257906349595489E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.6803898504453033E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5459921548575439E-3</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.37086203999327844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1073,14 +1262,22 @@
         <v>1.3585110718652357E-2</v>
       </c>
       <c r="D23">
-        <v>7261</v>
+        <v>6257</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>1.3585110718652357E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.5730690577316343E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1455798586639853E-3</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15793613339625595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1092,14 +1289,22 @@
         <v>1.4903129657228018E-2</v>
       </c>
       <c r="D24">
-        <v>6610</v>
+        <v>4793</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>1.4903129657228018E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0437359493153485E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5342298359254676E-3</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.37134682199059887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1111,14 +1316,22 @@
         <v>1.0049241282283187E-2</v>
       </c>
       <c r="D25">
-        <v>9851</v>
+        <v>8393</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>1.0049241282283187E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1774402449075709E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7251611667925219E-3</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.17167078770752386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1130,14 +1343,22 @@
         <v>1.3585110718652357E-2</v>
       </c>
       <c r="D26">
-        <v>7261</v>
+        <v>6333</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>1.3585110718652357E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.55448468832582E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.959736164605843E-3</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1442561790766361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1149,14 +1370,22 @@
         <v>1.0049241282283187E-2</v>
       </c>
       <c r="D27">
-        <v>9851</v>
+        <v>13489</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>1.0049241282283187E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.3588932224593418E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.6903480598238451E-3</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26771653543307083</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1168,14 +1397,22 @@
         <v>2.1030494216614092E-2</v>
       </c>
       <c r="D28">
-        <v>4655</v>
+        <v>5386</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>2.1030494216614092E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.8228217280349981E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.8022769362641108E-3</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.13324826831935846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1187,14 +1424,22 @@
         <v>9.4304036212749902E-3</v>
       </c>
       <c r="D29">
-        <v>10504</v>
+        <v>13324</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>9.4304036212749902E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.4493444576877238E-3</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.9810591635872664E-3</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.21007151370679375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1206,14 +1451,22 @@
         <v>8.9686098654708519E-3</v>
       </c>
       <c r="D30">
-        <v>11050</v>
+        <v>10010</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>8.9686098654708519E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.8911968348170121E-3</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2258696934616018E-4</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10286844708209686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1225,14 +1478,22 @@
         <v>1.3372559507889811E-2</v>
       </c>
       <c r="D31">
-        <v>7378</v>
+        <v>8296</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>1.3372559507889811E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1910433539780848E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.4621259681089627E-3</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.10933777989518823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1244,14 +1505,22 @@
         <v>1.0212418300653595E-2</v>
       </c>
       <c r="D32">
-        <v>9692</v>
+        <v>10728</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>1.0212418300653595E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.2353158478019944E-3</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.7710245285160049E-4</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="3"/>
+        <v>-9.5677872183228721E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1263,14 +1532,22 @@
         <v>9.7361503261610364E-3</v>
       </c>
       <c r="D33">
-        <v>10171</v>
+        <v>13934</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>9.7361503261610364E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.1255522302978479E-3</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.6105980958631885E-3</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26813453042610808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1282,14 +1559,22 @@
         <v>8.1274382314694416E-3</v>
       </c>
       <c r="D34">
-        <v>12204</v>
+        <v>7766</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>8.1274382314694416E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.2712941774726672E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5855035432572303E-3</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.56420035596236962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1301,14 +1586,22 @@
         <v>5.0075112669003509E-3</v>
       </c>
       <c r="D35">
-        <v>19870</v>
+        <v>23616</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>5.0075112669003509E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.2165626581210994E-3</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.9094860877925149E-4</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.1579524371732165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1320,14 +1613,22 @@
         <v>6.2367469128102784E-3</v>
       </c>
       <c r="D36">
-        <v>15934</v>
+        <v>8911</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>6.2367469128102784E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1097547442015314E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8608005292050359E-3</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="3"/>
+        <v>0.77938075685273545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1339,14 +1640,22 @@
         <v>6.3914099450338747E-3</v>
       </c>
       <c r="D37">
-        <v>15546</v>
+        <v>17405</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>6.3914099450338747E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.7126535275635534E-3</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.7875641747032131E-4</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.10619822907740646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1358,14 +1667,22 @@
         <v>1.3347570742124934E-2</v>
       </c>
       <c r="D38">
-        <v>7392</v>
+        <v>8208</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>1.3347570742124934E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.2036591237361579E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.3109795047633547E-3</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="3"/>
+        <v>-9.8218584496870528E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1377,14 +1694,22 @@
         <v>1.0278548668927948E-2</v>
       </c>
       <c r="D39">
-        <v>9629</v>
+        <v>13189</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="1"/>
-        <v>1.0278548668927948E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.5250206938069081E-3</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.7535279751210399E-3</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26789073669952596</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -1396,14 +1721,22 @@
         <v>8.7865741147526571E-3</v>
       </c>
       <c r="D40">
-        <v>11281</v>
+        <v>15449</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="1"/>
-        <v>8.7865741147526571E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.4312817544536624E-3</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.3552923602989948E-3</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26805582352562862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -1415,14 +1748,22 @@
         <v>1.0844810758052272E-2</v>
       </c>
       <c r="D41">
-        <v>9121</v>
+        <v>10010</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="1"/>
-        <v>1.0844810758052272E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.8911968348170121E-3</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.536139232352598E-4</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="3"/>
+        <v>-8.7932739861523307E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1434,14 +1775,22 @@
         <v>1.092896174863388E-2</v>
       </c>
       <c r="D42">
-        <v>9050</v>
+        <v>11832</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="1"/>
-        <v>1.092896174863388E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.3808246731478381E-3</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.5481370754860417E-3</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.23315454240697281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -1453,14 +1802,22 @@
         <v>9.2515496345637899E-3</v>
       </c>
       <c r="D43">
-        <v>10709</v>
+        <v>14677</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="1"/>
-        <v>9.2515496345637899E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.7672734655207416E-3</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.4842761690430483E-3</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26852541111186307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1472,14 +1829,22 @@
         <v>1.1004732034774953E-2</v>
       </c>
       <c r="D44">
-        <v>8987</v>
+        <v>12312</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="1"/>
-        <v>1.1004732034774953E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.0567193038994529E-3</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.9480127308755006E-3</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26788591685465674</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -1491,14 +1856,22 @@
         <v>4.1010498687664041E-3</v>
       </c>
       <c r="D45">
-        <v>24284</v>
+        <v>21731</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="1"/>
-        <v>4.1010498687664041E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.5806422060372864E-3</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7959233727088227E-4</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11694379552013194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -1510,14 +1883,22 @@
         <v>7.5318219477291557E-3</v>
       </c>
       <c r="D46">
-        <v>13177</v>
+        <v>11634</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="1"/>
-        <v>7.5318219477291557E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.5222430543719103E-3</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>9.9042110664275453E-4</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13149821032895853</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -1529,14 +1910,22 @@
         <v>9.7134531325886349E-3</v>
       </c>
       <c r="D47">
-        <v>10195</v>
+        <v>12639</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="1"/>
-        <v>9.7134531325886349E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.8499097260381501E-3</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.8635434065504847E-3</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.19185179370437241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -1548,14 +1937,22 @@
         <v>9.3405566971791511E-3</v>
       </c>
       <c r="D48">
-        <v>10606</v>
+        <v>14524</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="1"/>
-        <v>9.3405566971791511E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.8380743982494529E-3</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.5024822989296982E-3</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26791575492341352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -1567,14 +1964,22 @@
         <v>6.3914099450338747E-3</v>
       </c>
       <c r="D49">
-        <v>15546</v>
+        <v>19464</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="1"/>
-        <v>6.3914099450338747E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.1114291555919037E-3</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.279980789441971E-3</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.20026579431609076</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -1586,14 +1991,22 @@
         <v>9.4571590694155477E-3</v>
       </c>
       <c r="D50">
-        <v>10474</v>
+        <v>14190</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="1"/>
-        <v>9.4571590694155477E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.9979006298110571E-3</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.4592584396044906E-3</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26004198740377882</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -1605,14 +2018,22 @@
         <v>2.1080591099774436E-3</v>
       </c>
       <c r="D51">
-        <v>47337</v>
+        <v>16622</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="1"/>
-        <v>2.1080591099774436E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.9801459155603394E-3</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8720868055828958E-3</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8368018179643584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1624,14 +2045,22 @@
         <v>7.7960551960707886E-3</v>
       </c>
       <c r="D52">
-        <v>12727</v>
+        <v>11175</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="1"/>
-        <v>7.7960551960707886E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.869179600886918E-3</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0731244048161294E-3</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1376496674057649</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -1643,14 +2072,22 @@
         <v>2.3407691767514806E-3</v>
       </c>
       <c r="D53">
-        <v>42621</v>
+        <v>58290</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="1"/>
-        <v>2.3407691767514806E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.7126220243192328E-3</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.2814715243224772E-4</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26835074499058054</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -1662,14 +2099,22 @@
         <v>2.9910567403463643E-3</v>
       </c>
       <c r="D54">
-        <v>33333</v>
+        <v>41333</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="1"/>
-        <v>2.9910567403463643E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.4135351048681004E-3</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.7752163547826387E-4</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.19308280838944797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -1681,14 +2126,22 @@
         <v>4.1010498687664041E-3</v>
       </c>
       <c r="D55">
-        <v>24284</v>
+        <v>12590</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="1"/>
-        <v>4.1010498687664041E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.8802206461780922E-3</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7791707774116881E-3</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="3"/>
+        <v>0.92151300236406608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -1700,14 +2153,22 @@
         <v>4.1010498687664041E-3</v>
       </c>
       <c r="D56">
-        <v>24284</v>
+        <v>13396</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="1"/>
-        <v>4.1010498687664041E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.4096028452874923E-3</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3085529765210881E-3</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="3"/>
+        <v>0.8067575577949021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -1719,14 +2180,22 @@
         <v>8.3850410867013243E-3</v>
       </c>
       <c r="D57">
-        <v>11826</v>
+        <v>15360</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="1"/>
-        <v>8.3850410867013243E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.4683053040103496E-3</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.9167357826909747E-3</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.22858990944372565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -1738,14 +2207,22 @@
         <v>7.4090538638215903E-3</v>
       </c>
       <c r="D58">
-        <v>13397</v>
+        <v>18348</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="1"/>
-        <v>7.4090538638215903E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.4206418039895923E-3</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.988412059831998E-3</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26837597571552474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -1757,14 +2234,22 @@
         <v>7.4649148999701405E-3</v>
       </c>
       <c r="D59">
-        <v>13296</v>
+        <v>18200</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="1"/>
-        <v>7.4649148999701405E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.4644808743169399E-3</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.0004340256532006E-3</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26797814207650272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -1776,14 +2261,22 @@
         <v>2.3407691767514806E-3</v>
       </c>
       <c r="D60">
-        <v>42621</v>
+        <v>16214</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="1"/>
-        <v>2.3407691767514806E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.1297045482407745E-3</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>3.788935371489294E-3</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6186710800539412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -1795,14 +2288,22 @@
         <v>1.915892326851231E-3</v>
       </c>
       <c r="D61">
-        <v>52095</v>
+        <v>71233</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="1"/>
-        <v>1.915892326851231E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.4018757096995781E-3</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.1401661715165287E-4</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.26829097332230523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -1814,14 +2315,22 @@
         <v>2.3407691767514806E-3</v>
       </c>
       <c r="D62">
-        <v>42621</v>
+        <v>34621</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="1"/>
-        <v>2.3407691767514806E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.880101379568561E-3</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="2"/>
+        <v>5.3933220281708041E-4</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="3"/>
+        <v>0.23040811036548492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -1833,14 +2342,22 @@
         <v>1.915892326851231E-3</v>
       </c>
       <c r="D63">
-        <v>52095</v>
+        <v>46756</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="1"/>
-        <v>1.915892326851231E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.1341983950828071E-3</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1830606823157613E-4</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11394485231347116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -1852,14 +2369,22 @@
         <v>2.9910567403463643E-3</v>
       </c>
       <c r="D64">
-        <v>33333</v>
+        <v>15959</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="1"/>
-        <v>2.9910567403463643E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.2270377981194346E-3</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2359810577730704E-3</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0818855470452706</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -1871,14 +2396,22 @@
         <v>4.1010498687664041E-3</v>
       </c>
       <c r="D65">
-        <v>24284</v>
+        <v>13358</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="1"/>
-        <v>4.1010498687664041E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.4305245950364099E-3</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3294747262700057E-3</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="3"/>
+        <v>0.81185911725367821</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -1886,18 +2419,26 @@
         <v>12809</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ref="C66:C80" si="2">100/(100+B66)</f>
+        <f t="shared" ref="C66:C80" si="4">100/(100+B66)</f>
         <v>7.7465334262917344E-3</v>
       </c>
       <c r="D66">
-        <v>12809</v>
+        <v>17547</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E80" si="3">100/(100+D66)</f>
-        <v>7.7465334262917344E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E66:E80" si="5">100/(100+D66)</f>
+        <v>5.6666855556185185E-3</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" ref="F66:F80" si="6">E66-C66</f>
+        <v>-2.0798478706732159E-3</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" ref="G66:G80" si="7">F66/C66</f>
+        <v>-0.26848756162520543</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -1905,18 +2446,26 @@
         <v>13531</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.3362189127723571E-3</v>
       </c>
       <c r="D67">
-        <v>13531</v>
+        <v>18528</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="3"/>
-        <v>7.3362189127723571E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5.3682628301481641E-3</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.9679560826241929E-3</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26825209362250374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -1924,18 +2473,26 @@
         <v>13445</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.3827980804724988E-3</v>
       </c>
       <c r="D68">
-        <v>13445</v>
+        <v>18413</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="3"/>
-        <v>7.3827980804724988E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5.4016096796845464E-3</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.9811884007879524E-3</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26835196888672813</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -1943,18 +2500,26 @@
         <v>33333</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9910567403463643E-3</v>
       </c>
       <c r="D69">
-        <v>33333</v>
+        <v>13644</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9910567403463643E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>7.2759022118742724E-3</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="6"/>
+        <v>4.2848454715279077E-3</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4325523864959255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -1962,18 +2527,26 @@
         <v>16875</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.8910162002945507E-3</v>
       </c>
       <c r="D70">
-        <v>16875</v>
+        <v>23099</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="3"/>
-        <v>5.8910162002945507E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4.3105306263200999E-3</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.5804855739744508E-3</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26828742618216306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -1981,18 +2554,26 @@
         <v>52095</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.915892326851231E-3</v>
       </c>
       <c r="D71">
-        <v>52095</v>
+        <v>17000</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="3"/>
-        <v>1.915892326851231E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5.8479532163742687E-3</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="6"/>
+        <v>3.9320608895230379E-3</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="7"/>
+        <v>2.0523391812865497</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -2000,18 +2581,26 @@
         <v>91436</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0924663520363574E-3</v>
       </c>
       <c r="D72" s="2">
-        <v>119776</v>
+        <v>124891</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="3"/>
-        <v>8.3419533517968569E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>8.0005760414749859E-4</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.9240874788885878E-4</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26765927146754576</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -2019,18 +2608,26 @@
         <v>91436</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0924663520363574E-3</v>
       </c>
       <c r="D73" s="2">
-        <v>119776</v>
+        <v>124891</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="3"/>
-        <v>8.3419533517968569E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>8.0005760414749859E-4</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.9240874788885878E-4</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26765927146754576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -2038,18 +2635,26 @@
         <v>91436</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0924663520363574E-3</v>
       </c>
       <c r="D74" s="2">
-        <v>119776</v>
+        <v>124891</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="3"/>
-        <v>8.3419533517968569E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>8.0005760414749859E-4</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.9240874788885878E-4</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26765927146754576</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -2057,18 +2662,26 @@
         <v>52095</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.915892326851231E-3</v>
       </c>
-      <c r="D75" s="2">
-        <v>68304</v>
+      <c r="D75">
+        <v>71233</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="3"/>
-        <v>1.4619028127010117E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1.4018757096995781E-3</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="6"/>
+        <v>-5.1401661715165287E-4</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26829097332230523</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -2076,18 +2689,26 @@
         <v>91436</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0924663520363574E-3</v>
       </c>
       <c r="D76" s="2">
-        <v>119776</v>
+        <v>124891</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="3"/>
-        <v>8.3419533517968569E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>8.0005760414749859E-4</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.9240874788885878E-4</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26765927146754576</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>67</v>
       </c>
@@ -2095,18 +2716,26 @@
         <v>13341</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.4399226248047018E-3</v>
       </c>
       <c r="D77">
-        <v>13341</v>
+        <v>18264</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="3"/>
-        <v>7.4399226248047018E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5.4454367240252665E-3</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.9944859007794353E-3</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26807884992376391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -2114,18 +2743,26 @@
         <v>33333</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9910567403463643E-3</v>
       </c>
       <c r="D78">
-        <v>33333</v>
+        <v>45592</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9910567403463643E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2.1885669263766085E-3</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="6"/>
+        <v>-8.0248981396975573E-4</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26829641950450844</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -2133,18 +2770,26 @@
         <v>13261</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.4844697253199609E-3</v>
       </c>
       <c r="D79">
-        <v>13261</v>
+        <v>18153</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="3"/>
-        <v>7.4844697253199609E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5.4785514709910698E-3</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.005918254328891E-3</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26801073796088315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -2152,15 +2797,23 @@
         <v>52095</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.915892326851231E-3</v>
       </c>
       <c r="D80">
-        <v>52095</v>
+        <v>71233</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="3"/>
-        <v>1.915892326851231E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.4018757096995781E-3</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="6"/>
+        <v>-5.1401661715165287E-4</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.26829097332230523</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Golf/2022-04-21 Zurich Classic/golf-odds-pinnacle-input.xlsx
+++ b/Data_Golf/2022-04-21 Zurich Classic/golf-odds-pinnacle-input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikef\Documents\GitHub\DFS_Data\Data_Golf\2022-04-21 Zurich Classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB42EFA-1641-4ACA-9E46-CE320B855FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA8E78E-4544-4D81-A341-00CF9E31C546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11175" yWindow="6735" windowWidth="28800" windowHeight="15435" xr2:uid="{99801895-7261-44E2-ABCF-7D743E07E5B7}"/>
+    <workbookView xWindow="-11835" yWindow="5655" windowWidth="21600" windowHeight="11385" xr2:uid="{99801895-7261-44E2-ABCF-7D743E07E5B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0904DF-0F5B-4FA4-AC3B-B5E40CFFA2FC}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M72" sqref="M71:M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,19 +668,19 @@
         <v>9.8522167487684734E-2</v>
       </c>
       <c r="D1" s="2">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="E1" s="1">
         <f>100/(100+D1)</f>
-        <v>0.10427528675703858</v>
+        <v>0.1037344398340249</v>
       </c>
       <c r="F1" s="1">
         <f>E1-C1</f>
-        <v>5.7531192693538458E-3</v>
+        <v>5.2122723463401688E-3</v>
       </c>
       <c r="G1" s="3">
         <f>F1/C1</f>
-        <v>5.8394160583941535E-2</v>
+        <v>5.290456431535271E-2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,19 +695,19 @@
         <v>9.1743119266055051E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>1133</v>
+        <v>1142</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E65" si="1">100/(100+D2)</f>
-        <v>8.1103000811030002E-2</v>
+        <v>8.0515297906602251E-2</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F65" si="2">E2-C2</f>
-        <v>-1.0640118455025049E-2</v>
+        <v>-1.12278213594528E-2</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G65" si="3">F2/C2</f>
-        <v>-0.11597729115977304</v>
+        <v>-0.12238325281803551</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -722,19 +722,19 @@
         <v>7.3746312684365781E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>1318</v>
+        <v>1351</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
-        <v>7.0521861777150918E-2</v>
+        <v>6.8917987594762239E-2</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="2"/>
-        <v>-3.2244509072148625E-3</v>
+        <v>-4.8283250896035412E-3</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="3"/>
-        <v>-4.3723554301833535E-2</v>
+        <v>-6.5472088215024024E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -749,19 +749,19 @@
         <v>8.2508250825082508E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>1321</v>
+        <v>1223</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>7.0372976776917659E-2</v>
+        <v>7.5585789871504161E-2</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="2"/>
-        <v>-1.2135274048164849E-2</v>
+        <v>-6.9224609535783466E-3</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="3"/>
-        <v>-0.14707952146375797</v>
+        <v>-8.3900226757369564E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,19 +776,19 @@
         <v>6.7430883344571813E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>1309</v>
+        <v>1255</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>7.0972320794889993E-2</v>
+        <v>7.3800738007380073E-2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>3.54143745031818E-3</v>
+        <v>6.3698546628082608E-3</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="3"/>
-        <v>5.2519517388218612E-2</v>
+        <v>9.4464944649446506E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -803,19 +803,19 @@
         <v>4.5745654162854532E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>2092</v>
+        <v>1961</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>4.5620437956204379E-2</v>
+        <v>4.8520135856380396E-2</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>-1.2521620665015276E-4</v>
+        <v>2.774481693525864E-3</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="3"/>
-        <v>-2.7372262773723392E-3</v>
+        <v>6.0650169820475386E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -830,19 +830,19 @@
         <v>3.8699690402476783E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>2478</v>
+        <v>2495</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>3.8789759503491075E-2</v>
+        <v>3.8535645472061654E-2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>9.006910101429233E-5</v>
+        <v>-1.6404493041512896E-4</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="3"/>
-        <v>2.3273855702093138E-3</v>
+        <v>-4.2389210019269322E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -857,19 +857,19 @@
         <v>4.0371417036737987E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>2298</v>
+        <v>2362</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>4.1701417848206836E-2</v>
+        <v>4.0617384240454912E-2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>1.3300008114688483E-3</v>
+        <v>2.4596720371692499E-4</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="3"/>
-        <v>3.2944120100083372E-2</v>
+        <v>6.0926076360682318E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,19 +884,19 @@
         <v>3.3852403520649964E-2</v>
       </c>
       <c r="D9">
-        <v>2629</v>
+        <v>2604</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>3.6643459142543057E-2</v>
+        <v>3.6982248520710061E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>2.7910556218930932E-3</v>
+        <v>3.1298450000600969E-3</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="3"/>
-        <v>8.2447783070721981E-2</v>
+        <v>9.2455621301775273E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,19 +938,19 @@
         <v>2.5329280648429583E-2</v>
       </c>
       <c r="D11">
-        <v>3046</v>
+        <v>3197</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>3.1786395422759059E-2</v>
+        <v>3.0330603579011222E-2</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>6.4571147743294754E-3</v>
+        <v>5.0013229305816385E-3</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="3"/>
-        <v>0.2549268912905277</v>
+        <v>0.1974522292993631</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,19 +965,19 @@
         <v>2.4142926122646065E-2</v>
       </c>
       <c r="D12">
-        <v>3246</v>
+        <v>3132</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>2.9886431560071727E-2</v>
+        <v>3.094059405940594E-2</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>5.7435054374256611E-3</v>
+        <v>6.7976679367598748E-3</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="3"/>
-        <v>0.23789599521817087</v>
+        <v>0.28155940594059403</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -992,19 +992,19 @@
         <v>3.0211480362537766E-2</v>
       </c>
       <c r="D13">
-        <v>3485</v>
+        <v>3006</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>2.7894002789400279E-2</v>
+        <v>3.2195750160978753E-2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>-2.3174775731374872E-3</v>
+        <v>1.9842697984409872E-3</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="3"/>
-        <v>-7.6708507670850828E-2</v>
+        <v>6.5679330328396679E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,19 +1019,19 @@
         <v>2.3523876734885908E-2</v>
       </c>
       <c r="D14">
-        <v>3867</v>
+        <v>4106</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>2.5207965717166624E-2</v>
+        <v>2.3775558725630051E-2</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>1.6840889822807154E-3</v>
+        <v>2.516819907441431E-4</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="3"/>
-        <v>7.1590622636753212E-2</v>
+        <v>1.0699001426533523E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,19 +1046,19 @@
         <v>1.7295053614666205E-2</v>
       </c>
       <c r="D15">
-        <v>6463</v>
+        <v>6039</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>1.5236934328813043E-2</v>
+        <v>1.6289297931259161E-2</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>-2.0581192858531612E-3</v>
+        <v>-1.0057556834070433E-3</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="3"/>
-        <v>-0.11900045710802978</v>
+        <v>-5.8152793614595244E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,19 +1073,19 @@
         <v>1.6986580601324953E-2</v>
       </c>
       <c r="D16">
-        <v>5237</v>
+        <v>5562</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>1.873711823121604E-2</v>
+        <v>1.7661603673613566E-2</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>1.7505376298910871E-3</v>
+        <v>6.7502307228861289E-4</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="3"/>
-        <v>0.10305415027168831</v>
+        <v>3.9738608265630644E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,19 +1100,19 @@
         <v>1.7295053614666205E-2</v>
       </c>
       <c r="D17">
-        <v>7256</v>
+        <v>5845</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>1.3594344752582926E-2</v>
+        <v>1.6820857863751051E-2</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>-3.7007088620832785E-3</v>
+        <v>-4.7419575091515315E-4</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="3"/>
-        <v>-0.21397498640565518</v>
+        <v>-2.7417998317914156E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1127,19 +1127,19 @@
         <v>1.9421246844047387E-2</v>
       </c>
       <c r="D18">
-        <v>6789</v>
+        <v>4972</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>1.4515894904920888E-2</v>
+        <v>1.9716088328075709E-2</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>-4.9053519391264993E-3</v>
+        <v>2.9484148402832144E-4</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="3"/>
-        <v>-0.25257657134562345</v>
+        <v>1.5181388012618272E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,19 +1154,19 @@
         <v>1.6980811682798438E-2</v>
       </c>
       <c r="D19">
-        <v>6044</v>
+        <v>6421</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>1.6276041666666668E-2</v>
+        <v>1.5335071308081583E-2</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>-7.0477001613176993E-4</v>
+        <v>-1.6457403747168545E-3</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="3"/>
-        <v>-4.1503906249999931E-2</v>
+        <v>-9.6917650667075556E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1181,19 +1181,19 @@
         <v>1.7295053614666205E-2</v>
       </c>
       <c r="D20">
-        <v>4423</v>
+        <v>4695</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>2.2109219544550078E-2</v>
+        <v>2.0855057351407715E-2</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>4.8141659298838735E-3</v>
+        <v>3.5600037367415106E-3</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="3"/>
-        <v>0.27835507406588555</v>
+        <v>0.20583941605839415</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1208,19 +1208,19 @@
         <v>1.5179113539769277E-2</v>
       </c>
       <c r="D21">
-        <v>6522</v>
+        <v>6585</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>1.5101177891875567E-2</v>
+        <v>1.4958863126402393E-2</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>-7.7935647893710366E-5</v>
+        <v>-2.2025041336688408E-4</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="3"/>
-        <v>-5.134400483237639E-3</v>
+        <v>-1.4510097232610323E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1235,19 +1235,19 @@
         <v>1.2257906349595489E-2</v>
       </c>
       <c r="D22">
-        <v>5851</v>
+        <v>5443</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>1.6803898504453033E-2</v>
+        <v>1.8040772145047807E-2</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>4.5459921548575439E-3</v>
+        <v>5.7828657954523185E-3</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="3"/>
-        <v>0.37086203999327844</v>
+        <v>0.47176619159300015</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1262,19 +1262,19 @@
         <v>1.3585110718652357E-2</v>
       </c>
       <c r="D23">
-        <v>6257</v>
+        <v>6647</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>1.5730690577316343E-2</v>
+        <v>1.4821402104639099E-2</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
-        <v>2.1455798586639853E-3</v>
+        <v>1.2362913859867413E-3</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="3"/>
-        <v>0.15793613339625595</v>
+        <v>9.1003408922484028E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1289,19 +1289,19 @@
         <v>1.4903129657228018E-2</v>
       </c>
       <c r="D24">
-        <v>4793</v>
+        <v>5046</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>2.0437359493153485E-2</v>
+        <v>1.9432568985619899E-2</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>5.5342298359254676E-3</v>
+        <v>4.5294393283918811E-3</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="3"/>
-        <v>0.37134682199059887</v>
+        <v>0.30392537893509525</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1316,19 +1316,19 @@
         <v>1.0049241282283187E-2</v>
       </c>
       <c r="D25">
-        <v>8393</v>
+        <v>8914</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>1.1774402449075709E-2</v>
+        <v>1.1093854004881295E-2</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>1.7251611667925219E-3</v>
+        <v>1.0446127225981084E-3</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="3"/>
-        <v>0.17167078770752386</v>
+        <v>0.10394941202573778</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1343,19 +1343,19 @@
         <v>1.3585110718652357E-2</v>
       </c>
       <c r="D26">
-        <v>6333</v>
+        <v>6679</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>1.55448468832582E-2</v>
+        <v>1.475143826523086E-2</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
-        <v>1.959736164605843E-3</v>
+        <v>1.1663275465785029E-3</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="3"/>
-        <v>0.1442561790766361</v>
+        <v>8.58533707036436E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1370,19 +1370,19 @@
         <v>1.0049241282283187E-2</v>
       </c>
       <c r="D27">
-        <v>13489</v>
+        <v>13027</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>7.3588932224593418E-3</v>
+        <v>7.6178867982021788E-3</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="2"/>
-        <v>-2.6903480598238451E-3</v>
+        <v>-2.4313544840810081E-3</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26771653543307083</v>
+        <v>-0.24194408471090112</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1397,19 +1397,19 @@
         <v>2.1030494216614092E-2</v>
       </c>
       <c r="D28">
-        <v>5386</v>
+        <v>5157</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>1.8228217280349981E-2</v>
+        <v>1.9022256039566292E-2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="2"/>
-        <v>-2.8022769362641108E-3</v>
+        <v>-2.008238177047799E-3</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="3"/>
-        <v>-0.13324826831935846</v>
+        <v>-9.5491725318622836E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,19 +1424,19 @@
         <v>9.4304036212749902E-3</v>
       </c>
       <c r="D29">
-        <v>13324</v>
+        <v>12899</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>7.4493444576877238E-3</v>
+        <v>7.6928994538041388E-3</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
-        <v>-1.9810591635872664E-3</v>
+        <v>-1.7375041674708514E-3</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="3"/>
-        <v>-0.21007151370679375</v>
+        <v>-0.1842449419186091</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1451,19 +1451,19 @@
         <v>8.9686098654708519E-3</v>
       </c>
       <c r="D30">
-        <v>10010</v>
+        <v>9179</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>9.8911968348170121E-3</v>
+        <v>1.0777023386140748E-2</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>9.2258696934616018E-4</v>
+        <v>1.8084135206698961E-3</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="3"/>
-        <v>0.10286844708209686</v>
+        <v>0.20163810755469341</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1478,19 +1478,19 @@
         <v>1.3372559507889811E-2</v>
       </c>
       <c r="D31">
-        <v>8296</v>
+        <v>8813</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>1.1910433539780848E-2</v>
+        <v>1.1219566924716706E-2</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
-        <v>-1.4621259681089627E-3</v>
+        <v>-2.1529925831731047E-3</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="3"/>
-        <v>-0.10933777989518823</v>
+        <v>-0.16100078536968476</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1505,19 +1505,19 @@
         <v>1.0212418300653595E-2</v>
       </c>
       <c r="D32">
-        <v>10728</v>
+        <v>11390</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>9.2353158478019944E-3</v>
+        <v>8.7032201914708437E-3</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="2"/>
-        <v>-9.7710245285160049E-4</v>
+        <v>-1.5091981091827512E-3</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="3"/>
-        <v>-9.5677872183228721E-2</v>
+        <v>-0.14778067885117499</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1532,19 +1532,19 @@
         <v>9.7361503261610364E-3</v>
       </c>
       <c r="D33">
-        <v>13934</v>
+        <v>14787</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>7.1255522302978479E-3</v>
+        <v>6.7172701014307787E-3</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="2"/>
-        <v>-2.6105980958631885E-3</v>
+        <v>-3.0188802247302577E-3</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26813453042610808</v>
+        <v>-0.31006918788204474</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1559,19 +1559,19 @@
         <v>8.1274382314694416E-3</v>
       </c>
       <c r="D34">
-        <v>7766</v>
+        <v>6136</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>1.2712941774726672E-2</v>
+        <v>1.603592046183451E-2</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="2"/>
-        <v>4.5855035432572303E-3</v>
+        <v>7.9084822303650687E-3</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="3"/>
-        <v>0.56420035596236962</v>
+        <v>0.97305965362411795</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1586,19 +1586,19 @@
         <v>5.0075112669003509E-3</v>
       </c>
       <c r="D35">
-        <v>23616</v>
+        <v>25058</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>4.2165626581210994E-3</v>
+        <v>3.9748787661976308E-3</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="2"/>
-        <v>-7.9094860877925149E-4</v>
+        <v>-1.0326325007027201E-3</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="3"/>
-        <v>-0.1579524371732165</v>
+        <v>-0.20621671039033318</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1613,19 +1613,19 @@
         <v>6.2367469128102784E-3</v>
       </c>
       <c r="D36">
-        <v>8911</v>
+        <v>9462</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>1.1097547442015314E-2</v>
+        <v>1.0458063166701528E-2</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="2"/>
-        <v>4.8608005292050359E-3</v>
+        <v>4.2213162538912493E-3</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="3"/>
-        <v>0.77938075685273545</v>
+        <v>0.6768458481489229</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1640,19 +1640,19 @@
         <v>6.3914099450338747E-3</v>
       </c>
       <c r="D37">
-        <v>17405</v>
+        <v>18476</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>5.7126535275635534E-3</v>
+        <v>5.3832902670111977E-3</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="2"/>
-        <v>-6.7875641747032131E-4</v>
+        <v>-1.0081196780226771E-3</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="3"/>
-        <v>-0.10619822907740646</v>
+        <v>-0.15773040482342804</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1667,19 +1667,19 @@
         <v>1.3347570742124934E-2</v>
       </c>
       <c r="D38">
-        <v>8208</v>
+        <v>8722</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>1.2036591237361579E-2</v>
+        <v>1.1335298118340512E-2</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="2"/>
-        <v>-1.3109795047633547E-3</v>
+        <v>-2.0122726237844224E-3</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="3"/>
-        <v>-9.8218584496870528E-2</v>
+        <v>-0.15075946497392892</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1694,19 +1694,19 @@
         <v>1.0278548668927948E-2</v>
       </c>
       <c r="D39">
-        <v>13189</v>
+        <v>13996</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="1"/>
-        <v>7.5250206938069081E-3</v>
+        <v>7.0942111237230418E-3</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="2"/>
-        <v>-2.7535279751210399E-3</v>
+        <v>-3.1843375452049062E-3</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26789073669952596</v>
+        <v>-0.30980419977298529</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1721,19 +1721,19 @@
         <v>8.7865741147526571E-3</v>
       </c>
       <c r="D40">
-        <v>15449</v>
+        <v>16771</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="1"/>
-        <v>6.4312817544536624E-3</v>
+        <v>5.927330922885425E-3</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="2"/>
-        <v>-2.3552923602989948E-3</v>
+        <v>-2.8592431918672322E-3</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26805582352562862</v>
+        <v>-0.32541046766640974</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1748,19 +1748,19 @@
         <v>1.0844810758052272E-2</v>
       </c>
       <c r="D41">
-        <v>10010</v>
+        <v>10629</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="1"/>
-        <v>9.8911968348170121E-3</v>
+        <v>9.3205331344952923E-3</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="2"/>
-        <v>-9.536139232352598E-4</v>
+        <v>-1.5242776235569796E-3</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="3"/>
-        <v>-8.7932739861523307E-2</v>
+        <v>-0.1405536396681891</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1775,19 +1775,19 @@
         <v>1.092896174863388E-2</v>
       </c>
       <c r="D42">
-        <v>11832</v>
+        <v>12556</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="1"/>
-        <v>8.3808246731478381E-3</v>
+        <v>7.9013906447534758E-3</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5481370754860417E-3</v>
+        <v>-3.027571103880404E-3</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="3"/>
-        <v>-0.23315454240697281</v>
+        <v>-0.27702275600505699</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1802,19 +1802,19 @@
         <v>9.2515496345637899E-3</v>
       </c>
       <c r="D43">
-        <v>14677</v>
+        <v>15923</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="1"/>
-        <v>6.7672734655207416E-3</v>
+        <v>6.2410285215003429E-3</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="2"/>
-        <v>-2.4842761690430483E-3</v>
+        <v>-3.010521113063447E-3</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26852541111186307</v>
+        <v>-0.32540722711102799</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1829,19 +1829,19 @@
         <v>1.1004732034774953E-2</v>
       </c>
       <c r="D44">
-        <v>12312</v>
+        <v>13066</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="1"/>
-        <v>8.0567193038994529E-3</v>
+        <v>7.5953212820902326E-3</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="2"/>
-        <v>-2.9480127308755006E-3</v>
+        <v>-3.4094107526847208E-3</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26788591685465674</v>
+        <v>-0.30981315509646057</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,19 +1856,19 @@
         <v>4.1010498687664041E-3</v>
       </c>
       <c r="D45">
-        <v>21731</v>
+        <v>23063</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="1"/>
-        <v>4.5806422060372864E-3</v>
+        <v>4.3172300651901736E-3</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="2"/>
-        <v>4.7959233727088227E-4</v>
+        <v>2.1618019642376946E-4</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="3"/>
-        <v>0.11694379552013194</v>
+        <v>5.2713379095971943E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1883,19 +1883,19 @@
         <v>7.5318219477291557E-3</v>
       </c>
       <c r="D46">
-        <v>11634</v>
+        <v>12627</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="1"/>
-        <v>8.5222430543719103E-3</v>
+        <v>7.8573112280977443E-3</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="2"/>
-        <v>9.9042110664275453E-4</v>
+        <v>3.2548928036858858E-4</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="3"/>
-        <v>0.13149821032895853</v>
+        <v>4.3215211754537505E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,19 +1910,19 @@
         <v>9.7134531325886349E-3</v>
       </c>
       <c r="D47">
-        <v>12639</v>
+        <v>13413</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="1"/>
-        <v>7.8499097260381501E-3</v>
+        <v>7.4002812106860058E-3</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="2"/>
-        <v>-1.8635434065504847E-3</v>
+        <v>-2.313171921902629E-3</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="3"/>
-        <v>-0.19185179370437241</v>
+        <v>-0.23814104935987568</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1937,19 +1937,19 @@
         <v>9.3405566971791511E-3</v>
       </c>
       <c r="D48">
-        <v>14524</v>
+        <v>15760</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="1"/>
-        <v>6.8380743982494529E-3</v>
+        <v>6.3051702395964691E-3</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5024822989296982E-3</v>
+        <v>-3.035386457582682E-3</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26791575492341352</v>
+        <v>-0.32496847414880198</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1964,19 +1964,19 @@
         <v>6.3914099450338747E-3</v>
       </c>
       <c r="D49">
-        <v>19464</v>
+        <v>18189</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="1"/>
-        <v>5.1114291555919037E-3</v>
+        <v>5.4677675105254528E-3</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="2"/>
-        <v>-1.279980789441971E-3</v>
+        <v>-9.2364243450842199E-4</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="3"/>
-        <v>-0.20026579431609076</v>
+        <v>-0.14451309530318771</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1991,19 +1991,19 @@
         <v>9.4571590694155477E-3</v>
       </c>
       <c r="D50">
-        <v>14190</v>
+        <v>15058</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="1"/>
-        <v>6.9979006298110571E-3</v>
+        <v>6.5971764084971629E-3</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="2"/>
-        <v>-2.4592584396044906E-3</v>
+        <v>-2.8599826609183848E-3</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26004198740377882</v>
+        <v>-0.30241456656551002</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,19 +2018,19 @@
         <v>2.1080591099774436E-3</v>
       </c>
       <c r="D51">
-        <v>16622</v>
+        <v>18039</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="1"/>
-        <v>5.9801459155603394E-3</v>
+        <v>5.5129830751419594E-3</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="2"/>
-        <v>3.8720868055828958E-3</v>
+        <v>3.4049239651645158E-3</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="3"/>
-        <v>1.8368018179643584</v>
+        <v>1.6151937813550914</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2045,19 +2045,19 @@
         <v>7.7960551960707886E-3</v>
       </c>
       <c r="D52">
-        <v>11175</v>
+        <v>12133</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="1"/>
-        <v>8.869179600886918E-3</v>
+        <v>8.1746096623886207E-3</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="2"/>
-        <v>1.0731244048161294E-3</v>
+        <v>3.7855446631783213E-4</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="3"/>
-        <v>0.1376496674057649</v>
+        <v>4.8557181394588325E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2072,19 +2072,19 @@
         <v>2.3407691767514806E-3</v>
       </c>
       <c r="D53">
-        <v>58290</v>
+        <v>63227</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="1"/>
-        <v>1.7126220243192328E-3</v>
+        <v>1.5791052789489476E-3</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="2"/>
-        <v>-6.2814715243224772E-4</v>
+        <v>-7.6166389780253294E-4</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26835074499058054</v>
+        <v>-0.32539043378022009</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2099,19 +2099,19 @@
         <v>2.9910567403463643E-3</v>
       </c>
       <c r="D54">
-        <v>41333</v>
+        <v>44847</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="1"/>
-        <v>2.4135351048681004E-3</v>
+        <v>2.2248425923865884E-3</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="2"/>
-        <v>-5.7752163547826387E-4</v>
+        <v>-7.6621414795977581E-4</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" si="3"/>
-        <v>-0.19308280838944797</v>
+        <v>-0.25616837608739185</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2126,19 +2126,19 @@
         <v>4.1010498687664041E-3</v>
       </c>
       <c r="D55">
-        <v>12590</v>
+        <v>13662</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="1"/>
-        <v>7.8802206461780922E-3</v>
+        <v>7.2663856997529433E-3</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="2"/>
-        <v>3.7791707774116881E-3</v>
+        <v>3.1653358309865392E-3</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="3"/>
-        <v>0.92151300236406608</v>
+        <v>0.77183548902775767</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2153,19 +2153,19 @@
         <v>4.1010498687664041E-3</v>
       </c>
       <c r="D56">
-        <v>13396</v>
+        <v>14541</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="1"/>
-        <v>7.4096028452874923E-3</v>
+        <v>6.8301345536507067E-3</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="2"/>
-        <v>3.3085529765210881E-3</v>
+        <v>2.7290846848843026E-3</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="3"/>
-        <v>0.8067575577949021</v>
+        <v>0.66546000956218831</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2180,19 +2180,19 @@
         <v>8.3850410867013243E-3</v>
       </c>
       <c r="D57">
-        <v>15360</v>
+        <v>16673</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="1"/>
-        <v>6.4683053040103496E-3</v>
+        <v>5.961962678113635E-3</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="2"/>
-        <v>-1.9167357826909747E-3</v>
+        <v>-2.4230784085876892E-3</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" si="3"/>
-        <v>-0.22858990944372565</v>
+        <v>-0.28897633100816783</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,19 +2207,19 @@
         <v>7.4090538638215903E-3</v>
       </c>
       <c r="D58">
-        <v>18348</v>
+        <v>19914</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="1"/>
-        <v>5.4206418039895923E-3</v>
+        <v>4.9965024482861997E-3</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="2"/>
-        <v>-1.988412059831998E-3</v>
+        <v>-2.4125514155353906E-3</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26837597571552474</v>
+        <v>-0.32562206455481163</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2234,19 +2234,19 @@
         <v>7.4649148999701405E-3</v>
       </c>
       <c r="D59">
-        <v>18200</v>
+        <v>19751</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="1"/>
-        <v>5.4644808743169399E-3</v>
+        <v>5.0375295954863735E-3</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="2"/>
-        <v>-2.0004340256532006E-3</v>
+        <v>-2.427385304483767E-3</v>
       </c>
       <c r="G59" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26797814207650272</v>
+        <v>-0.32517253538864543</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2261,19 +2261,19 @@
         <v>2.3407691767514806E-3</v>
       </c>
       <c r="D60">
-        <v>16214</v>
+        <v>17594</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="1"/>
-        <v>6.1297045482407745E-3</v>
+        <v>5.6516333220300663E-3</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="2"/>
-        <v>3.788935371489294E-3</v>
+        <v>3.3108641452785858E-3</v>
       </c>
       <c r="G60" s="3">
         <f t="shared" si="3"/>
-        <v>1.6186710800539412</v>
+        <v>1.4144342715044647</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2288,19 +2288,19 @@
         <v>1.915892326851231E-3</v>
       </c>
       <c r="D61">
-        <v>71233</v>
+        <v>77263</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="1"/>
-        <v>1.4018757096995781E-3</v>
+        <v>1.292607577265618E-3</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="2"/>
-        <v>-5.1401661715165287E-4</v>
+        <v>-6.2328474958561297E-4</v>
       </c>
       <c r="G61" s="3">
         <f t="shared" si="3"/>
-        <v>-0.26829097332230523</v>
+        <v>-0.32532347504621068</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2315,19 +2315,19 @@
         <v>2.3407691767514806E-3</v>
       </c>
       <c r="D62">
-        <v>34621</v>
+        <v>37556</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="1"/>
-        <v>2.880101379568561E-3</v>
+        <v>2.6556192904185257E-3</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="2"/>
-        <v>5.3933220281708041E-4</v>
+        <v>3.1485011366704516E-4</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" si="3"/>
-        <v>0.23040811036548492</v>
+        <v>0.13450711705969837</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2342,19 +2342,19 @@
         <v>1.915892326851231E-3</v>
       </c>
       <c r="D63">
-        <v>46756</v>
+        <v>50716</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="1"/>
-        <v>2.1341983950828071E-3</v>
+        <v>1.9678841309823678E-3</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="2"/>
-        <v>2.1830606823157613E-4</v>
+        <v>5.1991804131136824E-5</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="3"/>
-        <v>0.11394485231347116</v>
+        <v>2.7137122166246867E-2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,19 +2369,19 @@
         <v>2.9910567403463643E-3</v>
       </c>
       <c r="D64">
-        <v>15959</v>
+        <v>17319</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="1"/>
-        <v>6.2270377981194346E-3</v>
+        <v>5.7408576841380104E-3</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="2"/>
-        <v>3.2359810577730704E-3</v>
+        <v>2.7498009437916461E-3</v>
       </c>
       <c r="G64" s="3">
         <f t="shared" si="3"/>
-        <v>1.0818855470452706</v>
+        <v>0.91934094953786105</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2396,19 +2396,19 @@
         <v>4.1010498687664041E-3</v>
       </c>
       <c r="D65">
-        <v>13358</v>
+        <v>14496</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="1"/>
-        <v>7.4305245950364099E-3</v>
+        <v>6.8511921074266924E-3</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="2"/>
-        <v>3.3294747262700057E-3</v>
+        <v>2.7501422386602883E-3</v>
       </c>
       <c r="G65" s="3">
         <f t="shared" si="3"/>
-        <v>0.81185911725367821</v>
+        <v>0.67059468347492468</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2423,19 +2423,19 @@
         <v>7.7465334262917344E-3</v>
       </c>
       <c r="D66">
-        <v>17547</v>
+        <v>19037</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" ref="E66:E80" si="5">100/(100+D66)</f>
-        <v>5.6666855556185185E-3</v>
+        <v>5.2254794377384122E-3</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" ref="F66:F80" si="6">E66-C66</f>
-        <v>-2.0798478706732159E-3</v>
+        <v>-2.5210539885533222E-3</v>
       </c>
       <c r="G66" s="3">
         <f t="shared" ref="G66:G80" si="7">F66/C66</f>
-        <v>-0.26848756162520543</v>
+        <v>-0.32544285938234835</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2450,19 +2450,19 @@
         <v>7.3362189127723571E-3</v>
       </c>
       <c r="D67">
-        <v>18528</v>
+        <v>20107</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="5"/>
-        <v>5.3682628301481641E-3</v>
+        <v>4.9487801256990153E-3</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="6"/>
-        <v>-1.9679560826241929E-3</v>
+        <v>-2.3874387870733418E-3</v>
       </c>
       <c r="G67" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26825209362250374</v>
+        <v>-0.32543178106596721</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2477,19 +2477,19 @@
         <v>7.3827980804724988E-3</v>
       </c>
       <c r="D68">
-        <v>18413</v>
+        <v>19984</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="5"/>
-        <v>5.4016096796845464E-3</v>
+        <v>4.9790878311093412E-3</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="6"/>
-        <v>-1.9811884007879524E-3</v>
+        <v>-2.4037102493631576E-3</v>
       </c>
       <c r="G68" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26835196888672813</v>
+        <v>-0.32558255327623969</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2504,19 +2504,19 @@
         <v>2.9910567403463643E-3</v>
       </c>
       <c r="D69">
-        <v>13644</v>
+        <v>14808</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" si="5"/>
-        <v>7.2759022118742724E-3</v>
+        <v>6.7078078883820768E-3</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="6"/>
-        <v>4.2848454715279077E-3</v>
+        <v>3.7167511480357125E-3</v>
       </c>
       <c r="G69" s="3">
         <f t="shared" si="7"/>
-        <v>1.4325523864959255</v>
+        <v>1.2426214113227798</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,19 +2531,19 @@
         <v>5.8910162002945507E-3</v>
       </c>
       <c r="D70">
-        <v>23099</v>
+        <v>25057</v>
       </c>
       <c r="E70" s="1">
         <f t="shared" si="5"/>
-        <v>4.3105306263200999E-3</v>
+        <v>3.975036769090114E-3</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="6"/>
-        <v>-1.5804855739744508E-3</v>
+        <v>-1.9159794312044367E-3</v>
       </c>
       <c r="G70" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26828742618216306</v>
+        <v>-0.32523750844695315</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2558,19 +2558,19 @@
         <v>1.915892326851231E-3</v>
       </c>
       <c r="D71">
-        <v>17000</v>
+        <v>18446</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" si="5"/>
-        <v>5.8479532163742687E-3</v>
+        <v>5.3919982745605525E-3</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="6"/>
-        <v>3.9320608895230379E-3</v>
+        <v>3.4761059477093218E-3</v>
       </c>
       <c r="G71" s="3">
         <f t="shared" si="7"/>
-        <v>2.0523391812865497</v>
+        <v>1.8143534994068804</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2585,19 +2585,19 @@
         <v>1.0924663520363574E-3</v>
       </c>
       <c r="D72" s="2">
-        <v>124891</v>
+        <v>135413</v>
       </c>
       <c r="E72" s="1">
         <f t="shared" si="5"/>
-        <v>8.0005760414749859E-4</v>
+        <v>7.3793658173016612E-4</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="6"/>
-        <v>-2.9240874788885878E-4</v>
+        <v>-3.5452977030619125E-4</v>
       </c>
       <c r="G72" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26765927146754576</v>
+        <v>-0.32452237054747518</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2612,19 +2612,19 @@
         <v>1.0924663520363574E-3</v>
       </c>
       <c r="D73" s="2">
-        <v>124891</v>
+        <v>135413</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="5"/>
-        <v>8.0005760414749859E-4</v>
+        <v>7.3793658173016612E-4</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="6"/>
-        <v>-2.9240874788885878E-4</v>
+        <v>-3.5452977030619125E-4</v>
       </c>
       <c r="G73" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26765927146754576</v>
+        <v>-0.32452237054747518</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2639,19 +2639,19 @@
         <v>1.0924663520363574E-3</v>
       </c>
       <c r="D74" s="2">
-        <v>124891</v>
+        <v>135413</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="5"/>
-        <v>8.0005760414749859E-4</v>
+        <v>7.3793658173016612E-4</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="6"/>
-        <v>-2.9240874788885878E-4</v>
+        <v>-3.5452977030619125E-4</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26765927146754576</v>
+        <v>-0.32452237054747518</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2666,19 +2666,19 @@
         <v>1.915892326851231E-3</v>
       </c>
       <c r="D75">
-        <v>71233</v>
+        <v>77263</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="5"/>
-        <v>1.4018757096995781E-3</v>
+        <v>1.292607577265618E-3</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="6"/>
-        <v>-5.1401661715165287E-4</v>
+        <v>-6.2328474958561297E-4</v>
       </c>
       <c r="G75" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26829097332230523</v>
+        <v>-0.32532347504621068</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2693,19 +2693,19 @@
         <v>1.0924663520363574E-3</v>
       </c>
       <c r="D76" s="2">
-        <v>124891</v>
+        <v>135413</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" si="5"/>
-        <v>8.0005760414749859E-4</v>
+        <v>7.3793658173016612E-4</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="6"/>
-        <v>-2.9240874788885878E-4</v>
+        <v>-3.5452977030619125E-4</v>
       </c>
       <c r="G76" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26765927146754576</v>
+        <v>-0.32452237054747518</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2720,19 +2720,19 @@
         <v>7.4399226248047018E-3</v>
       </c>
       <c r="D77">
-        <v>18264</v>
+        <v>19820</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="5"/>
-        <v>5.4454367240252665E-3</v>
+        <v>5.0200803212851405E-3</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="6"/>
-        <v>-1.9944859007794353E-3</v>
+        <v>-2.4198423035195612E-3</v>
       </c>
       <c r="G77" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26807884992376391</v>
+        <v>-0.32525100401606422</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2747,19 +2747,19 @@
         <v>2.9910567403463643E-3</v>
       </c>
       <c r="D78">
-        <v>45592</v>
+        <v>49460</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" si="5"/>
-        <v>2.1885669263766085E-3</v>
+        <v>2.0177562550443904E-3</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="6"/>
-        <v>-8.0248981396975573E-4</v>
+        <v>-9.7330048530197381E-4</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26829641950450844</v>
+        <v>-0.32540355125100889</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2774,19 +2774,19 @@
         <v>7.4844697253199609E-3</v>
       </c>
       <c r="D79">
-        <v>18153</v>
+        <v>19698</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" si="5"/>
-        <v>5.4785514709910698E-3</v>
+        <v>5.0510152540660675E-3</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="6"/>
-        <v>-2.005918254328891E-3</v>
+        <v>-2.4334544712538934E-3</v>
       </c>
       <c r="G79" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26801073796088315</v>
+        <v>-0.32513385190423272</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,19 +2801,19 @@
         <v>1.915892326851231E-3</v>
       </c>
       <c r="D80">
-        <v>71233</v>
+        <v>77263</v>
       </c>
       <c r="E80" s="1">
         <f t="shared" si="5"/>
-        <v>1.4018757096995781E-3</v>
+        <v>1.292607577265618E-3</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="6"/>
-        <v>-5.1401661715165287E-4</v>
+        <v>-6.2328474958561297E-4</v>
       </c>
       <c r="G80" s="3">
         <f t="shared" si="7"/>
-        <v>-0.26829097332230523</v>
+        <v>-0.32532347504621068</v>
       </c>
     </row>
   </sheetData>
